--- a/Lab 1/1.xlsx
+++ b/Lab 1/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enigm\source\repos\InterfaceDesign\Lab 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2F6FF1-C805-46B9-AACC-C334FEF22CFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71C468B-3CAD-462C-AB3B-C190B48466CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="72" windowWidth="22872" windowHeight="12288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -284,34 +284,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>496.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>768.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>793.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>934.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1177.5999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1091.4000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1226</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1405</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1348.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -671,31 +671,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1348.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1176.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1208.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1019</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1074</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>839</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>841.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>690</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>617.79999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1294,274 +1294,274 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>138.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>192.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>315.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>272.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>295.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>316.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>339.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>310.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>335.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>364.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>326.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>161.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>214.7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>188.8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>291.8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>318.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>364.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>308.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>383.4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>354.6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>223.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>196.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>225.7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>229.4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>332.2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>298.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>316.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>314.7</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>323.8</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>328.1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>243.9</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>161.9</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>160.1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>235.5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>244.4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>264.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>309.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>275.8</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>417.8</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>230.3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>151.5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>148.30000000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>185.8</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>220.1</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>248.2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>350.6</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>326.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>342.6</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>201.1</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>129.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>130.4</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>174.2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>224.9</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>199.7</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>245.8</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>206.3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>228.2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>322.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>209.9</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>111.9</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>186.4</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>157.9</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>206.4</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>184.3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0</c:v>
+                  <c:v>214.3</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0</c:v>
+                  <c:v>214.2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0</c:v>
+                  <c:v>255.4</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>169.5</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0</c:v>
+                  <c:v>177.3</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>126.2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>161.6</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0</c:v>
+                  <c:v>156.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0</c:v>
+                  <c:v>163.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>183.2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0</c:v>
+                  <c:v>188.8</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0</c:v>
+                  <c:v>202.2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0</c:v>
+                  <c:v>200.9</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0</c:v>
+                  <c:v>167.1</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0</c:v>
+                  <c:v>98.6</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0</c:v>
+                  <c:v>102.8</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>139.9</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0</c:v>
+                  <c:v>169.1</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0</c:v>
+                  <c:v>185.4</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0</c:v>
+                  <c:v>194.7</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0</c:v>
+                  <c:v>218.7</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0</c:v>
+                  <c:v>271.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3806,8 +3806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="H113" sqref="H113:H120"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3866,7 +3866,7 @@
         <v>0.1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>496.8</v>
       </c>
       <c r="E4">
         <f>$H$2+$H$3*LOG(C4/$D$2+1.2)</f>
@@ -3884,7 +3884,7 @@
         <v>20</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>768.6</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E13" si="0">$H$2+$H$3*LOG(C5/$D$2+1.2)</f>
@@ -3902,7 +3902,7 @@
         <v>40</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>793.6</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
@@ -3920,7 +3920,7 @@
         <v>60</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>934.8</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
@@ -3938,7 +3938,7 @@
         <v>100</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1021</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
@@ -3956,7 +3956,7 @@
         <v>150</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1177.5999999999999</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
@@ -3974,7 +3974,7 @@
         <v>200</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1091.4000000000001</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
@@ -3992,7 +3992,7 @@
         <v>250</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1226</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
@@ -4010,7 +4010,7 @@
         <v>300</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1405</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
@@ -4028,7 +4028,7 @@
         <v>350</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1348.8</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
@@ -4074,7 +4074,7 @@
         <v>8</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1348.4</v>
       </c>
       <c r="E17">
         <f>$H$2+$H$3*LOG($D$15/C17+1.2)</f>
@@ -4092,7 +4092,7 @@
         <v>10</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1176.2</v>
       </c>
       <c r="E18">
         <f t="shared" ref="E18:E25" si="1">$H$2+$H$3*LOG($D$15/C18+1.2)</f>
@@ -4110,7 +4110,7 @@
         <v>12</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1208.2</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
@@ -4128,7 +4128,7 @@
         <v>15</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1019</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
@@ -4146,7 +4146,7 @@
         <v>20</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1074</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
@@ -4164,7 +4164,7 @@
         <v>30</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>839</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
@@ -4182,7 +4182,7 @@
         <v>50</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>841.2</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
@@ -4200,7 +4200,7 @@
         <v>70</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
@@ -4218,7 +4218,7 @@
         <v>100</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>617.79999999999995</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
@@ -4271,7 +4271,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>138.19999999999999</v>
       </c>
       <c r="G29">
         <f>$H$2+$H$3*LOG(E29+1.2)</f>
@@ -4296,7 +4296,7 @@
         <v>2.5</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>192.6</v>
       </c>
       <c r="G30">
         <f t="shared" ref="G30:G93" si="3">$H$2+$H$3*LOG(E30+1.2)</f>
@@ -4321,7 +4321,7 @@
         <v>5</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>315.39999999999998</v>
       </c>
       <c r="G31">
         <f t="shared" si="3"/>
@@ -4346,7 +4346,7 @@
         <v>7.5</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>272.2</v>
       </c>
       <c r="G32">
         <f t="shared" si="3"/>
@@ -4371,7 +4371,7 @@
         <v>12.5</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>295.2</v>
       </c>
       <c r="G33">
         <f t="shared" si="3"/>
@@ -4396,7 +4396,7 @@
         <v>18.75</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>316.8</v>
       </c>
       <c r="G34">
         <f t="shared" si="3"/>
@@ -4421,7 +4421,7 @@
         <v>25</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>339.6</v>
       </c>
       <c r="G35">
         <f t="shared" si="3"/>
@@ -4446,7 +4446,7 @@
         <v>31.25</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>310.3</v>
       </c>
       <c r="G36">
         <f t="shared" si="3"/>
@@ -4471,14 +4471,14 @@
         <v>37.5</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>335.1</v>
       </c>
       <c r="G37">
         <f t="shared" si="3"/>
         <v>288.15664475283671</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
@@ -4496,7 +4496,7 @@
         <v>43.75</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>364.7</v>
       </c>
       <c r="G38">
         <f t="shared" si="3"/>
@@ -4521,7 +4521,7 @@
         <v>0.01</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>326.10000000000002</v>
       </c>
       <c r="G39">
         <f t="shared" si="3"/>
@@ -4546,7 +4546,7 @@
         <v>2</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>161.19999999999999</v>
       </c>
       <c r="G40">
         <f t="shared" si="3"/>
@@ -4571,14 +4571,14 @@
         <v>4</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>214.7</v>
       </c>
       <c r="G41">
         <f t="shared" si="3"/>
         <v>157.40050154521987</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
@@ -4596,14 +4596,14 @@
         <v>6</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>188.8</v>
       </c>
       <c r="G42">
         <f t="shared" si="3"/>
         <v>178.59987446469029</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
@@ -4621,7 +4621,7 @@
         <v>10</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>291.8</v>
       </c>
       <c r="G43">
         <f t="shared" si="3"/>
@@ -4646,14 +4646,14 @@
         <v>15</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>318.39999999999998</v>
       </c>
       <c r="G44">
         <f t="shared" si="3"/>
         <v>231.42725218139464</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
@@ -4671,7 +4671,7 @@
         <v>20</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>364.2</v>
       </c>
       <c r="G45">
         <f t="shared" si="3"/>
@@ -4696,7 +4696,7 @@
         <v>25</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>308.39999999999998</v>
       </c>
       <c r="G46">
         <f t="shared" si="3"/>
@@ -4721,7 +4721,7 @@
         <v>30</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>383.4</v>
       </c>
       <c r="G47">
         <f t="shared" si="3"/>
@@ -4746,14 +4746,14 @@
         <v>35</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>354.6</v>
       </c>
       <c r="G48">
         <f t="shared" si="3"/>
         <v>283.80628557997488</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
@@ -4771,7 +4771,7 @@
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>223.5</v>
       </c>
       <c r="G49">
         <f t="shared" si="3"/>
@@ -4796,7 +4796,7 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>196.5</v>
       </c>
       <c r="G50">
         <f t="shared" si="3"/>
@@ -4821,7 +4821,7 @@
         <v>3.3333333333333335</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>225.7</v>
       </c>
       <c r="G51">
         <f t="shared" si="3"/>
@@ -4846,7 +4846,7 @@
         <v>5</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>229.4</v>
       </c>
       <c r="G52">
         <f t="shared" si="3"/>
@@ -4871,7 +4871,7 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>332.2</v>
       </c>
       <c r="G53">
         <f t="shared" si="3"/>
@@ -4896,7 +4896,7 @@
         <v>12.5</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>298.10000000000002</v>
       </c>
       <c r="G54">
         <f t="shared" si="3"/>
@@ -4921,7 +4921,7 @@
         <v>16.666666666666668</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>316.5</v>
       </c>
       <c r="G55">
         <f t="shared" si="3"/>
@@ -4946,7 +4946,7 @@
         <v>20.833333333333332</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>314.7</v>
       </c>
       <c r="G56">
         <f t="shared" si="3"/>
@@ -4971,7 +4971,7 @@
         <v>25</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>323.8</v>
       </c>
       <c r="G57">
         <f t="shared" si="3"/>
@@ -4996,7 +4996,7 @@
         <v>29.166666666666668</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>328.1</v>
       </c>
       <c r="G58">
         <f t="shared" si="3"/>
@@ -5021,7 +5021,7 @@
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>243.9</v>
       </c>
       <c r="G59">
         <f t="shared" si="3"/>
@@ -5046,7 +5046,7 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>161.9</v>
       </c>
       <c r="G60">
         <f t="shared" si="3"/>
@@ -5071,7 +5071,7 @@
         <v>2.6666666666666665</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>160.1</v>
       </c>
       <c r="G61">
         <f t="shared" si="3"/>
@@ -5096,7 +5096,7 @@
         <v>4</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>235.5</v>
       </c>
       <c r="G62">
         <f t="shared" si="3"/>
@@ -5121,7 +5121,7 @@
         <v>6.666666666666667</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>244.4</v>
       </c>
       <c r="G63">
         <f t="shared" si="3"/>
@@ -5146,7 +5146,7 @@
         <v>10</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>264.60000000000002</v>
       </c>
       <c r="G64">
         <f t="shared" si="3"/>
@@ -5171,7 +5171,7 @@
         <v>13.333333333333334</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="G65">
         <f t="shared" si="3"/>
@@ -5196,7 +5196,7 @@
         <v>16.666666666666668</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>309.5</v>
       </c>
       <c r="G66">
         <f t="shared" si="3"/>
@@ -5221,7 +5221,7 @@
         <v>20</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>275.8</v>
       </c>
       <c r="G67">
         <f t="shared" si="3"/>
@@ -5246,7 +5246,7 @@
         <v>23.333333333333332</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>417.8</v>
       </c>
       <c r="G68">
         <f t="shared" si="3"/>
@@ -5271,7 +5271,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>230.3</v>
       </c>
       <c r="G69">
         <f t="shared" si="3"/>
@@ -5296,7 +5296,7 @@
         <v>1</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>151.5</v>
       </c>
       <c r="G70">
         <f t="shared" si="3"/>
@@ -5321,7 +5321,7 @@
         <v>2</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>148.30000000000001</v>
       </c>
       <c r="G71">
         <f t="shared" si="3"/>
@@ -5346,7 +5346,7 @@
         <v>3</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>185.8</v>
       </c>
       <c r="G72">
         <f t="shared" si="3"/>
@@ -5371,14 +5371,14 @@
         <v>5</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>220.1</v>
       </c>
       <c r="G73">
         <f t="shared" si="3"/>
         <v>168.8587534247381</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.3">
@@ -5396,7 +5396,7 @@
         <v>7.5</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>248.2</v>
       </c>
       <c r="G74">
         <f t="shared" si="3"/>
@@ -5421,7 +5421,7 @@
         <v>10</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>350.6</v>
       </c>
       <c r="G75">
         <f t="shared" si="3"/>
@@ -5446,7 +5446,7 @@
         <v>12.5</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>326.89999999999998</v>
       </c>
       <c r="G76">
         <f t="shared" si="3"/>
@@ -5471,7 +5471,7 @@
         <v>15</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="G77">
         <f t="shared" si="3"/>
@@ -5496,7 +5496,7 @@
         <v>17.5</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>342.6</v>
       </c>
       <c r="G78">
         <f t="shared" si="3"/>
@@ -5521,7 +5521,7 @@
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>201.1</v>
       </c>
       <c r="G79">
         <f t="shared" si="3"/>
@@ -5546,7 +5546,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>129.19999999999999</v>
       </c>
       <c r="G80">
         <f t="shared" si="3"/>
@@ -5571,7 +5571,7 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="G81">
         <f t="shared" si="3"/>
@@ -5596,7 +5596,7 @@
         <v>2</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>174.2</v>
       </c>
       <c r="G82">
         <f t="shared" si="3"/>
@@ -5621,7 +5621,7 @@
         <v>3.3333333333333335</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>224.9</v>
       </c>
       <c r="G83">
         <f t="shared" si="3"/>
@@ -5646,7 +5646,7 @@
         <v>5</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>199.7</v>
       </c>
       <c r="G84">
         <f t="shared" si="3"/>
@@ -5671,7 +5671,7 @@
         <v>6.666666666666667</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>245.8</v>
       </c>
       <c r="G85">
         <f t="shared" si="3"/>
@@ -5696,7 +5696,7 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>206.3</v>
       </c>
       <c r="G86">
         <f t="shared" si="3"/>
@@ -5721,7 +5721,7 @@
         <v>10</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>228.2</v>
       </c>
       <c r="G87">
         <f t="shared" si="3"/>
@@ -5746,7 +5746,7 @@
         <v>11.666666666666666</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>322.10000000000002</v>
       </c>
       <c r="G88">
         <f t="shared" si="3"/>
@@ -5771,7 +5771,7 @@
         <v>2E-3</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>209.9</v>
       </c>
       <c r="G89">
         <f t="shared" si="3"/>
@@ -5796,7 +5796,7 @@
         <v>0.4</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>111.9</v>
       </c>
       <c r="G90">
         <f t="shared" si="3"/>
@@ -5821,7 +5821,7 @@
         <v>0.8</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>186.4</v>
       </c>
       <c r="G91">
         <f t="shared" si="3"/>
@@ -5846,14 +5846,14 @@
         <v>1.2</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>157.9</v>
       </c>
       <c r="G92">
         <f t="shared" si="3"/>
         <v>107.0316862567409</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.3">
@@ -5871,14 +5871,14 @@
         <v>2</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>206.4</v>
       </c>
       <c r="G93">
         <f t="shared" si="3"/>
         <v>125.77249674798591</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.3">
@@ -5896,7 +5896,7 @@
         <v>3</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="G94">
         <f t="shared" ref="G94:G118" si="5">$H$2+$H$3*LOG(E94+1.2)</f>
@@ -5921,7 +5921,7 @@
         <v>4</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>184.3</v>
       </c>
       <c r="G95">
         <f t="shared" si="5"/>
@@ -5946,7 +5946,7 @@
         <v>5</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>214.3</v>
       </c>
       <c r="G96">
         <f t="shared" si="5"/>
@@ -5971,7 +5971,7 @@
         <v>6</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>214.2</v>
       </c>
       <c r="G97">
         <f t="shared" si="5"/>
@@ -5996,7 +5996,7 @@
         <v>7</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>255.4</v>
       </c>
       <c r="G98">
         <f t="shared" si="5"/>
@@ -6021,7 +6021,7 @@
         <v>1.4285714285714286E-3</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>169.5</v>
       </c>
       <c r="G99">
         <f t="shared" si="5"/>
@@ -6046,7 +6046,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>177.3</v>
       </c>
       <c r="G100">
         <f t="shared" si="5"/>
@@ -6071,7 +6071,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>126.2</v>
       </c>
       <c r="G101">
         <f t="shared" si="5"/>
@@ -6096,7 +6096,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>161.6</v>
       </c>
       <c r="G102">
         <f t="shared" si="5"/>
@@ -6121,7 +6121,7 @@
         <v>1.4285714285714286</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>156.69999999999999</v>
       </c>
       <c r="G103">
         <f t="shared" si="5"/>
@@ -6146,7 +6146,7 @@
         <v>2.1428571428571428</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="G104">
         <f t="shared" si="5"/>
@@ -6171,7 +6171,7 @@
         <v>2.8571428571428572</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>183.2</v>
       </c>
       <c r="G105">
         <f t="shared" si="5"/>
@@ -6196,7 +6196,7 @@
         <v>3.5714285714285716</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>188.8</v>
       </c>
       <c r="G106">
         <f t="shared" si="5"/>
@@ -6221,7 +6221,7 @@
         <v>4.2857142857142856</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>202.2</v>
       </c>
       <c r="G107">
         <f t="shared" si="5"/>
@@ -6246,7 +6246,7 @@
         <v>5</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>200.9</v>
       </c>
       <c r="G108">
         <f t="shared" si="5"/>
@@ -6271,7 +6271,7 @@
         <v>1E-3</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>167.1</v>
       </c>
       <c r="G109">
         <f t="shared" si="5"/>
@@ -6296,7 +6296,7 @@
         <v>0.2</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>98.6</v>
       </c>
       <c r="G110">
         <f t="shared" si="5"/>
@@ -6321,7 +6321,7 @@
         <v>0.4</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>102.8</v>
       </c>
       <c r="G111">
         <f t="shared" si="5"/>
@@ -6346,7 +6346,7 @@
         <v>0.6</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="G112">
         <f t="shared" si="5"/>
@@ -6371,7 +6371,7 @@
         <v>1</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>139.9</v>
       </c>
       <c r="G113">
         <f t="shared" si="5"/>
@@ -6396,7 +6396,7 @@
         <v>1.5</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>169.1</v>
       </c>
       <c r="G114">
         <f t="shared" si="5"/>
@@ -6421,7 +6421,7 @@
         <v>2</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>185.4</v>
       </c>
       <c r="G115">
         <f t="shared" si="5"/>
@@ -6446,7 +6446,7 @@
         <v>2.5</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>194.7</v>
       </c>
       <c r="G116">
         <f t="shared" si="5"/>
@@ -6471,7 +6471,7 @@
         <v>3</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>218.7</v>
       </c>
       <c r="G117">
         <f t="shared" si="5"/>
@@ -6496,7 +6496,7 @@
         <v>3.5</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>271.7</v>
       </c>
       <c r="G118">
         <f t="shared" si="5"/>
